--- a/苗栗縣警察局防空疏散避難設施.xlsx
+++ b/苗栗縣警察局防空疏散避難設施.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83920FA7-B61F-424F-99C0-FDFC15B79A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616C00D-18C3-45A4-866C-F992DCEC6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
+    <workbookView xWindow="14820" yWindow="0" windowWidth="13980" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
   <sheets>
     <sheet name="正規化" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="144">
   <si>
     <r>
       <rPr>
@@ -1792,15 +1792,625 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Nvarchar2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>轄管村里資訊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>總表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮中埔街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮和平街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮龍山路三段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣後龍鎮中華路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1498</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苗栗縣苗栗市米市街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苗栗縣苗栗市光復路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苗栗縣苗栗市博愛街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>109</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>苗栗縣苗栗市大同路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市民族里和平路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市忠孝忠孝一路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市信義里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>116</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分局代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar2(4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar2 (4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar2 (30)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(11)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char2 (4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer(4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2 (1)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(4)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nvarchar2(3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char (3vu86ej0)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-581072</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>竹南鎮竹南里中山路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>103</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗市綠苗里中正路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 766 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>忠孝里</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>忠孝里光大街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣竹南鎮民族街</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-474796</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-320059</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>037-663004</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>苗栗縣頭份市中興路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>503</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>號</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2033,7 +2643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2058,28 +2668,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -2088,40 +2689,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2133,17 +2740,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2154,47 +2752,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2510,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35040AC7-81D7-44BF-B29F-CDEEFDE859E6}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2522,931 +3141,837 @@
     <col min="3" max="3" width="39.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="15"/>
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:13">
+      <c r="B1" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="40"/>
+      <c r="I1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="B2" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="I2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8"/>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="30" t="s">
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="I4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8"/>
+      <c r="B5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8"/>
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8"/>
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="8"/>
+      <c r="B10" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8"/>
+      <c r="B11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8"/>
+      <c r="B12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8"/>
+      <c r="B15" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8"/>
+      <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="8"/>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="43">
+        <v>100</v>
+      </c>
+      <c r="E21" s="43">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="43">
+        <v>3142</v>
+      </c>
+      <c r="E22" s="43">
+        <v>1</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="K22" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="43">
+        <v>1072</v>
+      </c>
+      <c r="E23" s="43">
+        <v>1</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="43">
+        <v>32</v>
+      </c>
+      <c r="E24" s="43">
+        <v>1</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="51">
         <v>106</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="15"/>
-      <c r="B2" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="23" t="s">
+      <c r="E25" s="43">
+        <v>1</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" s="51">
+        <v>26</v>
+      </c>
+      <c r="E26" s="43">
+        <v>1</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="52">
+        <v>2038</v>
+      </c>
+      <c r="E27" s="43">
         <v>2</v>
       </c>
-      <c r="K2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="23"/>
-      <c r="B3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="33"/>
-      <c r="B4" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="23"/>
-      <c r="B5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="23"/>
-      <c r="B6" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="23"/>
-      <c r="B7" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="22" t="s">
+      <c r="F27" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="B28" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="52">
+        <v>128</v>
+      </c>
+      <c r="E28" s="43">
+        <v>2</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="22" t="s">
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="L12" s="24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="B29" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="C29" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="43">
+        <v>353</v>
+      </c>
+      <c r="E29" s="43">
+        <v>1</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="B30" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="C30" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="43">
+        <v>501</v>
+      </c>
+      <c r="E30" s="43">
+        <v>1</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="22" t="s">
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="23"/>
-      <c r="B15" s="22" t="s">
+      <c r="B31" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="43">
+        <v>194</v>
+      </c>
+      <c r="E31" s="43">
+        <v>1</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="B32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="19">
+        <v>78</v>
+      </c>
+      <c r="E32" s="19">
+        <v>1</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="K15" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="23"/>
-      <c r="B16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="H17" s="15"/>
-      <c r="I17" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="33"/>
-      <c r="I19" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" s="33"/>
-      <c r="I20" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="23">
-        <v>100</v>
-      </c>
-      <c r="E21" s="23">
-        <v>1</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="33"/>
-      <c r="I21" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="23">
-        <v>3142</v>
-      </c>
-      <c r="E22" s="23">
-        <v>1</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="33"/>
-      <c r="I22" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1072</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="33"/>
-      <c r="I23" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="23">
-        <v>32</v>
-      </c>
-      <c r="E24" s="23">
-        <v>1</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="25">
-        <v>106</v>
-      </c>
-      <c r="E25" s="23">
-        <v>1</v>
-      </c>
-      <c r="F25" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J25" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="25">
-        <v>26</v>
-      </c>
-      <c r="E26" s="23">
-        <v>1</v>
-      </c>
-      <c r="F26" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J26" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="26">
-        <v>2038</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="J27" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="26">
-        <v>128</v>
-      </c>
-      <c r="E28" s="23">
-        <v>2</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K28" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="23">
-        <v>353</v>
-      </c>
-      <c r="E29" s="23">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="23">
-        <v>501</v>
-      </c>
-      <c r="E30" s="23">
-        <v>1</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="J30" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="23">
-        <v>194</v>
-      </c>
-      <c r="E31" s="23">
-        <v>1</v>
-      </c>
-      <c r="F31" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J31" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="K31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="L31" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="28">
-        <v>78</v>
-      </c>
-      <c r="E32" s="28">
-        <v>1</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>55</v>
-      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="I17:L17"/>
     <mergeCell ref="I1:L1"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4339,13 +4864,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -4359,7 +4884,7 @@
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -4368,7 +4893,6 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="9"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -4405,7 +4929,7 @@
       <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="8">
@@ -4428,7 +4952,7 @@
       <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="8">
@@ -4451,7 +4975,7 @@
       <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="8">
@@ -4474,7 +4998,7 @@
       <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="8">
@@ -4488,7 +5012,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="12"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8" t="s">
@@ -4497,10 +5021,10 @@
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>106</v>
       </c>
       <c r="E9" s="8">
@@ -4511,7 +5035,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8" t="s">
@@ -4520,10 +5044,10 @@
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>26</v>
       </c>
       <c r="E10" s="8">
@@ -4534,7 +5058,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="13"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8" t="s">
@@ -4543,10 +5067,10 @@
       <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="11">
         <v>2038</v>
       </c>
       <c r="E11" s="8">
@@ -4557,7 +5081,7 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8" t="s">
@@ -4566,10 +5090,10 @@
       <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="11">
         <v>128</v>
       </c>
       <c r="E12" s="8">
@@ -4589,7 +5113,7 @@
       <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="8">
@@ -4612,7 +5136,7 @@
       <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="8">
@@ -4635,7 +5159,7 @@
       <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
       <c r="D15" s="8">
@@ -4658,7 +5182,7 @@
       <c r="B16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="8">
@@ -4667,28 +5191,24 @@
       <c r="E16" s="8">
         <v>1</v>
       </c>
-      <c r="J16" s="9"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:14">
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:14">
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -4698,33 +5218,30 @@
       <c r="D19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="36" t="s">
+      <c r="G19" s="23" t="s">
         <v>67</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="35" t="s">
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="22" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="22" t="s">
         <v>91</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -4737,8 +5254,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="35" t="s">
+    <row r="21" spans="1:14">
+      <c r="A21" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -4747,7 +5264,7 @@
       <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="22" t="s">
         <v>92</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -4760,8 +5277,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:14">
+      <c r="A22" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -4770,7 +5287,7 @@
       <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="22" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -4783,8 +5300,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="35" t="s">
+    <row r="23" spans="1:14">
+      <c r="A23" s="22" t="s">
         <v>80</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -4793,7 +5310,7 @@
       <c r="D23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="22" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -4806,11 +5323,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:14">
       <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="22" t="s">
         <v>95</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -4823,11 +5340,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:14">
       <c r="D25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="22" t="s">
         <v>96</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -4840,11 +5357,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:14">
       <c r="D26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="22" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="7" t="s">
@@ -4857,11 +5374,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:14">
       <c r="D27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="22" t="s">
         <v>98</v>
       </c>
       <c r="F27" s="7" t="s">
@@ -4874,11 +5391,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:14">
       <c r="D28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="22" t="s">
         <v>99</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -4891,11 +5408,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:14">
       <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="22" t="s">
         <v>100</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -4908,11 +5425,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:14">
       <c r="D30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="22" t="s">
         <v>101</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -4925,11 +5442,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:14">
       <c r="D31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="22" t="s">
         <v>102</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -4953,7 +5470,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87E638A-2B97-4CA5-8042-DAE3F99F34F5}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
@@ -4970,11 +5487,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
@@ -5261,8 +5778,6 @@
       <c r="H20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="7:11">
       <c r="G21" s="3" t="s">
@@ -5271,8 +5786,6 @@
       <c r="H21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="7:11">
       <c r="G22" s="3" t="s">
@@ -5281,8 +5794,6 @@
       <c r="H22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
       <c r="K22" s="8"/>
     </row>
     <row r="23" spans="7:11">
@@ -5292,8 +5803,6 @@
       <c r="H23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
       <c r="K23" s="8"/>
     </row>
     <row r="24" spans="7:11">
@@ -5303,8 +5812,6 @@
       <c r="H24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
       <c r="K24" s="8"/>
     </row>
     <row r="25" spans="7:11">
@@ -5314,7 +5821,6 @@
       <c r="H25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="7:11">
       <c r="G26" s="3" t="s">
@@ -5323,7 +5829,6 @@
       <c r="H26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="7:11">
       <c r="G27" s="3" t="s">
@@ -5332,7 +5837,6 @@
       <c r="H27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="7:11">
       <c r="G28" s="3" t="s">
@@ -5341,55 +5845,18 @@
       <c r="H28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="7:11">
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="7:11">
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="7:11">
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="7:11">
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="7:9">
+    </row>
+    <row r="33" spans="7:8">
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="7:9">
+    </row>
+    <row r="34" spans="7:8">
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="7:9">
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="7:9">
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="7:9">
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="7:9">
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5419,10 +5886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="32"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -6522,7 +6989,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84266E48-736B-480A-B0C1-CFC1D340507D}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="A18:L22"/>
@@ -6531,430 +6998,414 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
-      <c r="G1" s="30" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31"/>
+      <c r="G1" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="J1" s="37" t="s">
+      <c r="H1" s="31"/>
+      <c r="J1" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="39"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="35"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="19" t="s">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="18" t="s">
+      <c r="J3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="8">
         <v>100</v>
       </c>
-      <c r="E5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="8">
         <v>3142</v>
       </c>
-      <c r="E6" s="24">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="8">
         <v>1072</v>
       </c>
-      <c r="E7" s="24">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="8">
         <v>32</v>
       </c>
-      <c r="E8" s="24">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="E8" s="17">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="10">
         <v>106</v>
       </c>
-      <c r="E9" s="24">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22" t="s">
+      <c r="E9" s="17">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="10">
         <v>26</v>
       </c>
-      <c r="E10" s="24">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="s">
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="17" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="11">
         <v>2038</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="17">
         <v>2</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="24" t="s">
+      <c r="L11" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="11">
         <v>128</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="G12" s="27" t="s">
+      <c r="G12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="8">
         <v>353</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="8">
         <v>501</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="8">
         <v>194</v>
       </c>
-      <c r="E15" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -6966,49 +7417,6 @@
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/苗栗縣警察局防空疏散避難設施.xlsx
+++ b/苗栗縣警察局防空疏散避難設施.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Java班\git_upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616C00D-18C3-45A4-866C-F992DCEC6396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC27BA9-C779-4759-8BFC-1B0813F91964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="0" windowWidth="13980" windowHeight="15600" xr2:uid="{36CE15E8-7DE5-4D3C-B6E0-1B1AB355C8A4}"/>
   </bookViews>
@@ -2230,10 +2230,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>char (3vu86ej0)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>037-581072</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2411,6 +2407,10 @@
       </rPr>
       <t>號</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char (3)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2418,7 +2418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2473,6 +2473,14 @@
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2643,7 +2651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2731,6 +2739,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2738,9 +2776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2752,39 +2787,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2794,25 +2796,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3129,10 +3116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35040AC7-81D7-44BF-B29F-CDEEFDE859E6}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3151,21 +3138,20 @@
     <col min="15" max="15" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="36" t="s">
+    <row r="1" spans="1:12">
+      <c r="B1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="40"/>
-      <c r="I1" s="33" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="I1" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="B2" s="24" t="s">
         <v>82</v>
       </c>
@@ -3175,21 +3161,20 @@
       <c r="D2" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="I2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="45" t="s">
+      <c r="I2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="46" t="s">
+      <c r="L2" s="34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:12">
       <c r="A3" s="8"/>
       <c r="B3" s="16" t="s">
         <v>1</v>
@@ -3200,16 +3185,13 @@
       <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="41"/>
       <c r="H3" s="8"/>
       <c r="I3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
       <c r="L3" s="13"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:12">
       <c r="B4" s="12" t="s">
         <v>86</v>
       </c>
@@ -3219,21 +3201,20 @@
       <c r="D4" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="41"/>
       <c r="I4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" t="s">
         <v>131</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" t="s">
         <v>125</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" s="8"/>
       <c r="B5" s="16" t="s">
         <v>12</v>
@@ -3244,23 +3225,22 @@
       <c r="D5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="41"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="8"/>
       <c r="B6" s="16" t="s">
         <v>22</v>
@@ -3271,23 +3251,22 @@
       <c r="D6" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="41"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="43" t="s">
+      <c r="J6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="50" t="s">
-        <v>135</v>
+      <c r="K6" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" s="8"/>
       <c r="B7" s="16" t="s">
         <v>27</v>
@@ -3298,23 +3277,22 @@
       <c r="D7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="41"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="L7" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" s="8"/>
       <c r="B8" s="16" t="s">
         <v>33</v>
@@ -3325,23 +3303,22 @@
       <c r="D8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="41"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" s="8"/>
       <c r="B9" s="16" t="s">
         <v>38</v>
@@ -3352,23 +3329,22 @@
       <c r="D9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="41"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="50" t="s">
-        <v>136</v>
+      <c r="K9" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10" s="8"/>
       <c r="B10" s="16" t="s">
         <v>38</v>
@@ -3379,23 +3355,22 @@
       <c r="D10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="41"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="A11" s="8"/>
       <c r="B11" s="16" t="s">
         <v>38</v>
@@ -3406,23 +3381,22 @@
       <c r="D11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="41"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="56" t="s">
+      <c r="J11" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="35" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="50" t="s">
-        <v>138</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12">
       <c r="A12" s="8"/>
       <c r="B12" s="16" t="s">
         <v>38</v>
@@ -3433,7 +3407,6 @@
       <c r="D12" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="41"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="18" t="s">
@@ -3449,7 +3422,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13" s="8"/>
       <c r="B13" s="16" t="s">
         <v>46</v>
@@ -3460,14 +3433,8 @@
       <c r="D13" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="41"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="8"/>
       <c r="B14" s="16" t="s">
         <v>56</v>
@@ -3478,14 +3445,8 @@
       <c r="D14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="41"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="8"/>
       <c r="B15" s="16" t="s">
         <v>61</v>
@@ -3496,14 +3457,12 @@
       <c r="D15" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="39"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="8"/>
       <c r="B16" s="18" t="s">
         <v>61</v>
@@ -3514,39 +3473,38 @@
       <c r="D16" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
       <c r="H18" s="8"/>
       <c r="I18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="32" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="26" t="s">
@@ -3555,28 +3513,28 @@
       <c r="C19" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I19" s="55" t="s">
+      <c r="I19" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="J19" s="45" t="s">
+      <c r="J19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="K19" s="45" t="s">
+      <c r="K19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3584,19 +3542,19 @@
       <c r="A20" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C20" s="39" t="s">
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" t="s">
         <v>123</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -3605,10 +3563,10 @@
       <c r="I20" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="J20" s="39" t="s">
+      <c r="J20" t="s">
         <v>124</v>
       </c>
-      <c r="K20" s="39" t="s">
+      <c r="K20" t="s">
         <v>125</v>
       </c>
       <c r="L20" s="28" t="s">
@@ -3619,19 +3577,19 @@
       <c r="A21" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="8">
         <v>100</v>
       </c>
-      <c r="E21" s="43">
-        <v>1</v>
-      </c>
-      <c r="F21" s="39" t="s">
+      <c r="E21" s="8">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -3640,33 +3598,33 @@
       <c r="I21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J21" s="43" t="s">
+      <c r="J21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="17" t="s">
         <v>139</v>
-      </c>
-      <c r="L21" s="17" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="8">
         <v>3142</v>
       </c>
-      <c r="E22" s="43">
-        <v>1</v>
-      </c>
-      <c r="F22" s="43" t="s">
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="17" t="s">
@@ -3675,33 +3633,33 @@
       <c r="I22" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="K22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D23" s="43">
+      <c r="D23" s="8">
         <v>1072</v>
       </c>
-      <c r="E23" s="43">
-        <v>1</v>
-      </c>
-      <c r="F23" s="43" t="s">
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G23" s="17" t="s">
@@ -3713,228 +3671,220 @@
       <c r="J23" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="54" t="s">
-        <v>143</v>
+      <c r="K23" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="50" t="s">
+      <c r="C24" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="D24" s="43">
+      <c r="D24" s="8">
         <v>32</v>
       </c>
-      <c r="E24" s="43">
-        <v>1</v>
-      </c>
-      <c r="F24" s="43" t="s">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="51">
+      <c r="D25" s="10">
         <v>106</v>
       </c>
-      <c r="E25" s="43">
-        <v>1</v>
-      </c>
-      <c r="F25" s="39" t="s">
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="51">
+      <c r="D26" s="10">
         <v>26</v>
       </c>
-      <c r="E26" s="43">
-        <v>1</v>
-      </c>
-      <c r="F26" s="39" t="s">
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
         <v>77</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="11">
         <v>2038</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="8">
         <v>2</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" t="s">
         <v>77</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="11">
         <v>128</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="8">
         <v>2</v>
       </c>
-      <c r="F28" s="43" t="s">
+      <c r="F28" s="8" t="s">
         <v>21</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="8">
         <v>353</v>
       </c>
-      <c r="E29" s="43">
-        <v>1</v>
-      </c>
-      <c r="F29" s="43" t="s">
+      <c r="E29" s="8">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="8">
         <v>501</v>
       </c>
-      <c r="E30" s="43">
-        <v>1</v>
-      </c>
-      <c r="F30" s="43" t="s">
+      <c r="E30" s="8">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="43">
+      <c r="D31" s="8">
         <v>194</v>
       </c>
-      <c r="E31" s="43">
-        <v>1</v>
-      </c>
-      <c r="F31" s="39" t="s">
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
         <v>77</v>
       </c>
       <c r="G31" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="18" t="s">
@@ -3943,7 +3893,7 @@
       <c r="B32" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="37" t="s">
         <v>120</v>
       </c>
       <c r="D32" s="19">
@@ -3958,10 +3908,10 @@
       <c r="G32" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4864,13 +4814,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -5487,11 +5437,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:10">
       <c r="B2" t="s">
@@ -5886,10 +5836,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="48"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -6998,22 +6948,22 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
-      <c r="G1" s="29" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="G1" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="41"/>
+      <c r="J1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="34"/>
-      <c r="L1" s="35"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="44"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="12" t="s">
